--- a/ELECTRONIC PROJECTS/Rollmech_Design_Files/! Altium Specific Files/Altium Templates/Rollmech BOM Purchase Live.xlsx
+++ b/ELECTRONIC PROJECTS/Rollmech_Design_Files/! Altium Specific Files/Altium Templates/Rollmech BOM Purchase Live.xlsx
@@ -1,25 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rollmech-Team-1\Documents\Circuit_Studio_Project_Templates\Rollmech_BOM_Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a\Documents\Electronic\ELECTRONIC PROJECTS\Rollmech_Design_Files\! Altium Specific Files\Altium Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA0FEDCE-B1F9-435D-BD44-DFA0F7C928F6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Part List Report" sheetId="3" r:id="rId1"/>
     <sheet name="Project Information" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -170,9 +172,6 @@
     <t>Column=Supplier Unit Price 1</t>
   </si>
   <si>
-    <t>Column=Supplier Subtotal 1</t>
-  </si>
-  <si>
     <t>Column=Supplier Currency 1</t>
   </si>
   <si>
@@ -201,12 +200,15 @@
   </si>
   <si>
     <t>http://www.rollmech.com</t>
+  </si>
+  <si>
+    <t>Supplier Subtotal 1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-C09]dd\-mmm\-yy;@"/>
     <numFmt numFmtId="165" formatCode="[$-409]h:mm:ss\ AM/PM;@"/>
@@ -219,12 +221,14 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color indexed="12"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -248,12 +252,14 @@
       <sz val="10"/>
       <color indexed="13"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color indexed="13"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
@@ -312,6 +318,7 @@
       <b/>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -910,7 +917,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1226,9 +1233,15 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Köprü" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
@@ -1433,7 +1446,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Teması">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1752,14 +1765,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1832,13 +1845,13 @@
       <c r="E3" s="16"/>
       <c r="F3" s="48"/>
       <c r="G3" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H3" s="48"/>
       <c r="I3" s="86"/>
       <c r="J3" s="16"/>
       <c r="K3" s="19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L3" s="48"/>
       <c r="M3" s="55"/>
@@ -1922,7 +1935,7 @@
       <c r="I7" s="88"/>
       <c r="J7" s="25"/>
       <c r="K7" s="73" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L7" s="48"/>
       <c r="M7" s="48"/>
@@ -1937,11 +1950,11 @@
       </c>
       <c r="D8" s="27">
         <f ca="1">TODAY()</f>
-        <v>43598</v>
+        <v>44028</v>
       </c>
       <c r="E8" s="28">
         <f ca="1">NOW()</f>
-        <v>43598.710557407408</v>
+        <v>44028.706894328701</v>
       </c>
       <c r="F8" s="48"/>
       <c r="G8" s="25"/>
@@ -1969,7 +1982,7 @@
         <v>41</v>
       </c>
       <c r="F9" s="45" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G9" s="45" t="s">
         <v>32</v>
@@ -1993,10 +2006,10 @@
         <v>46</v>
       </c>
       <c r="N9" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="O9" s="46" t="s">
         <v>47</v>
-      </c>
-      <c r="O9" s="46" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:15" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2010,13 +2023,16 @@
       <c r="E10" s="38"/>
       <c r="F10" s="38"/>
       <c r="G10" s="38"/>
-      <c r="H10" s="38"/>
+      <c r="H10" s="109"/>
       <c r="I10" s="89"/>
       <c r="J10" s="38"/>
       <c r="K10" s="50"/>
       <c r="L10" s="50"/>
       <c r="M10" s="100"/>
-      <c r="N10" s="100"/>
+      <c r="N10" s="108">
+        <f>IF(AND( ISNUMBER(H10),ISNUMBER(M10)),H10*M10,0)</f>
+        <v>0</v>
+      </c>
       <c r="O10" s="79"/>
     </row>
     <row r="11" spans="1:15" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2036,7 +2052,10 @@
       <c r="K11" s="51"/>
       <c r="L11" s="51"/>
       <c r="M11" s="101"/>
-      <c r="N11" s="101"/>
+      <c r="N11" s="108">
+        <f t="shared" ref="N11:N12" si="0">IF(AND( ISNUMBER(H11),ISNUMBER(M11)),H11*M11,0)</f>
+        <v>0</v>
+      </c>
       <c r="O11" s="80"/>
     </row>
     <row r="12" spans="1:15" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2056,7 +2075,10 @@
       <c r="K12" s="52"/>
       <c r="L12" s="52"/>
       <c r="M12" s="102"/>
-      <c r="N12" s="102"/>
+      <c r="N12" s="108">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="O12" s="81"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
@@ -2115,13 +2137,13 @@
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="98" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I15" s="97" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J15" s="57" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K15" s="48"/>
       <c r="L15" s="105">
@@ -2130,7 +2152,7 @@
       </c>
       <c r="M15" s="106"/>
       <c r="N15" s="56" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O15" s="78"/>
     </row>
@@ -2145,7 +2167,7 @@
       <c r="H16" s="7"/>
       <c r="I16" s="94"/>
       <c r="J16" s="61" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K16" s="8"/>
       <c r="L16" s="107" t="e">
@@ -2154,7 +2176,7 @@
       </c>
       <c r="M16" s="107"/>
       <c r="N16" s="99" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O16" s="78"/>
     </row>
@@ -2208,7 +2230,7 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="K7" r:id="rId1"/>
+    <hyperlink ref="K7" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.47244094488188981" right="0.35433070866141736" top="0.59055118110236227" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" scale="57" orientation="landscape" horizontalDpi="200" verticalDpi="200" r:id="rId2"/>
@@ -2221,7 +2243,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:B14"/>
   <sheetViews>
